--- a/static/PHR User Stories.xlsx
+++ b/static/PHR User Stories.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aditya.chouhan\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aditya.Chouhan\Portfolio\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A154C002-0DA9-42F2-A903-B074E48DB9E7}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17850" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="12510" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Code Structure" sheetId="1" r:id="rId1"/>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="140">
   <si>
     <t>Module</t>
   </si>
@@ -248,9 +249,6 @@
   </si>
   <si>
     <t>Password</t>
-  </si>
-  <si>
-    <t>Life@2016</t>
   </si>
   <si>
     <t>Latest PHR Project</t>
@@ -454,7 +452,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -719,7 +717,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -757,7 +761,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1045,24 +1055,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M33" sqref="M33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.26953125" customWidth="1"/>
-    <col min="3" max="3" width="31.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.26953125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.28515625" customWidth="1"/>
+    <col min="3" max="3" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -1076,7 +1086,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -1090,7 +1100,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>24</v>
@@ -1100,7 +1110,7 @@
       </c>
       <c r="D3" s="16"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
         <v>25</v>
@@ -1110,7 +1120,7 @@
       </c>
       <c r="D4" s="17"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>1</v>
       </c>
@@ -1124,7 +1134,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="4" t="s">
         <v>29</v>
@@ -1134,7 +1144,7 @@
       </c>
       <c r="D6" s="21"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="4" t="s">
         <v>30</v>
@@ -1144,7 +1154,7 @@
       </c>
       <c r="D7" s="21"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="4" t="s">
         <v>31</v>
@@ -1154,7 +1164,7 @@
       </c>
       <c r="D8" s="21"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="4" t="s">
         <v>32</v>
@@ -1164,9 +1174,9 @@
       </c>
       <c r="D9" s="22"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>26</v>
@@ -1178,7 +1188,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="3" t="s">
         <v>27</v>
@@ -1188,7 +1198,7 @@
       </c>
       <c r="D11" s="19"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>2</v>
       </c>
@@ -1200,7 +1210,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>11</v>
       </c>
@@ -1210,7 +1220,7 @@
       </c>
       <c r="D13" s="6"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>33</v>
       </c>
@@ -1220,41 +1230,41 @@
       </c>
       <c r="D14" s="7"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="B16" s="12"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="B16" s="12"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" s="12" t="s">
+      <c r="B17" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="B17" s="12" t="s">
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" s="12" t="s">
+      <c r="B18" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="B18" s="12" t="s">
-        <v>83</v>
-      </c>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="12"/>
       <c r="B19" s="12" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="14" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A21" s="14" t="s">
+      <c r="B21" s="12" t="s">
         <v>85</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -1269,21 +1279,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="F58" sqref="F58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="130.90625" customWidth="1"/>
+    <col min="1" max="1" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="130.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>36</v>
       </c>
@@ -1291,10 +1301,10 @@
         <v>35</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>37</v>
       </c>
@@ -1305,14 +1315,14 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="16"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="16"/>
       <c r="B4" s="2" t="s">
         <v>42</v>
@@ -1321,14 +1331,14 @@
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="16"/>
       <c r="B6" s="2" t="s">
         <v>43</v>
@@ -1337,21 +1347,21 @@
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="16"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="16"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="16"/>
       <c r="B9" s="2" t="s">
         <v>44</v>
@@ -1360,63 +1370,63 @@
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="16"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="16"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="16"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="16"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="16"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="16"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="16"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="16"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="18" t="s">
         <v>38</v>
       </c>
@@ -1424,177 +1434,177 @@
         <v>45</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="26"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="26"/>
       <c r="B20" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="26"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="26"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="26"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="26"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="26"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="26"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="26"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="26"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="26"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="26"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="26"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="26"/>
       <c r="B32" s="3" t="s">
         <v>46</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="26"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="26"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="26"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="26"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="26"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="26"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="26"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="26"/>
       <c r="B40" s="3" t="s">
         <v>47</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="26"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="23" t="s">
         <v>39</v>
       </c>
@@ -1602,51 +1612,51 @@
         <v>48</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="24"/>
       <c r="B43" s="10" t="s">
         <v>49</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="24"/>
       <c r="B44" s="10"/>
       <c r="C44" s="10" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="24"/>
       <c r="B45" s="10"/>
       <c r="C45" s="10" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="24"/>
       <c r="B46" s="10" t="s">
         <v>50</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="25"/>
       <c r="B47" s="10" t="s">
         <v>51</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="27" t="s">
         <v>40</v>
       </c>
@@ -1654,153 +1664,153 @@
         <v>9</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="28"/>
       <c r="B49" s="9"/>
       <c r="C49" s="9" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="28"/>
       <c r="B50" s="9"/>
       <c r="C50" s="9" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="28"/>
       <c r="B51" s="9"/>
       <c r="C51" s="9" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="28"/>
       <c r="B52" s="9"/>
       <c r="C52" s="9" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="28"/>
       <c r="B53" s="9"/>
       <c r="C53" s="9" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="28"/>
       <c r="B54" s="9"/>
       <c r="C54" s="9" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="28"/>
       <c r="B55" s="9" t="s">
         <v>52</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="28"/>
       <c r="B56" s="9"/>
       <c r="C56" s="9" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="28"/>
       <c r="B57" s="9"/>
       <c r="C57" s="9" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="28"/>
       <c r="B58" s="9"/>
       <c r="C58" s="9" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="28"/>
       <c r="B59" s="9" t="s">
         <v>53</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="28"/>
       <c r="B60" s="9"/>
       <c r="C60" s="9" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="28"/>
       <c r="B61" s="9"/>
       <c r="C61" s="9" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="28"/>
       <c r="B62" s="9"/>
       <c r="C62" s="9" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="28"/>
       <c r="B63" s="9"/>
       <c r="C63" s="9" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="28"/>
       <c r="B64" s="9" t="s">
         <v>54</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="28"/>
       <c r="B65" s="9"/>
       <c r="C65" s="9" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="28"/>
       <c r="B66" s="9"/>
       <c r="C66" s="9" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="28"/>
       <c r="B67" s="9"/>
       <c r="C67" s="9" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="29"/>
       <c r="B68" s="9"/>
       <c r="C68" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -1816,29 +1826,29 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="50.90625" customWidth="1"/>
+    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="50.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="B1" s="13" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>71</v>
       </c>
@@ -1846,37 +1856,34 @@
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="13"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="12" t="s">
+      <c r="B4" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="B4" s="12" t="s">
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
+      <c r="B31" t="s">
         <v>77</v>
-      </c>
-      <c r="B31" t="s">
-        <v>78</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2"/>
-    <hyperlink ref="B1" r:id="rId3"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="B1" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId4"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>